--- a/results_v2.xlsx
+++ b/results_v2.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Georgia Tech 2018-2019\Spring 2019\ECE 6790\project\try2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FF799C-37C2-4CE6-85FE-F088814017F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BFA20C-F025-47ED-8A36-E065261F27A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{1C9E67DF-E904-44C8-9FA4-E3624DD188E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="5" xr2:uid="{1C9E67DF-E904-44C8-9FA4-E3624DD188E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset 1" sheetId="3" r:id="rId1"/>
     <sheet name="Dataset 2" sheetId="1" r:id="rId2"/>
     <sheet name="Dataset 3" sheetId="2" r:id="rId3"/>
     <sheet name="Dataset 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Dataset 5" sheetId="6" r:id="rId5"/>
+    <sheet name="Dataset 6" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="17">
   <si>
     <t>Variables</t>
   </si>
@@ -78,6 +80,12 @@
   </si>
   <si>
     <t>RANDOM CHANNEL ORDER, TRUNCATED INPUT (~1K), COLUMN VECTOR CONVOLUTIONAL LAYER … FOR FULL DATA SEE "RANDOM_COL_TRUNC.TXT"</t>
+  </si>
+  <si>
+    <t>STANDARD CHANNEL ORDER, TRUNCATED INPUT (~1K), 5x5 VECTOR CONVOLUTIONAL LAYER … FOR FULL DATA SEE "STANDARD_SQ_TRUNC_5x5.TXT"</t>
+  </si>
+  <si>
+    <t>RANDOM CHANNEL ORDER, TRUNCATED INPUT (~1K), 5x5 VECTOR CONVOLUTIONAL LAYER … FOR FULL DATA SEE "RANDOM_SQ_TRUNC_5x5.TXT"</t>
   </si>
 </sst>
 </file>
@@ -363,10 +371,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -378,19 +413,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -399,31 +428,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -742,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F40ACBD-F2DC-464B-B171-089A6A9CA756}">
   <dimension ref="B1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -753,29 +761,29 @@
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
       <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="25">
-        <v>6</v>
-      </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="26"/>
+      <c r="M2" s="28">
+        <v>6</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
@@ -784,26 +792,26 @@
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
-      <c r="F3" s="40"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+      <c r="J3" s="33"/>
       <c r="L3" s="9"/>
       <c r="M3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
-      <c r="P3" s="40"/>
+      <c r="P3" s="32"/>
       <c r="Q3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="R3" s="31"/>
       <c r="S3" s="31"/>
-      <c r="T3" s="32"/>
+      <c r="T3" s="33"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
@@ -913,62 +921,62 @@
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="25">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
       <c r="L6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="25">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33">
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="34"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="26"/>
     </row>
     <row r="7" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25">
-        <v>2</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
+      <c r="C8" s="28">
+        <v>2</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
       <c r="L8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="28">
         <v>7</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="26"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
@@ -977,26 +985,26 @@
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="30" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
+      <c r="J9" s="33"/>
       <c r="L9" s="9"/>
       <c r="M9" s="30" t="s">
         <v>0</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31"/>
-      <c r="P9" s="40"/>
+      <c r="P9" s="32"/>
       <c r="Q9" s="30" t="s">
         <v>0</v>
       </c>
       <c r="R9" s="31"/>
       <c r="S9" s="31"/>
-      <c r="T9" s="32"/>
+      <c r="T9" s="33"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
@@ -1106,62 +1114,62 @@
       <c r="B12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="25">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
       <c r="L12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="25">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33">
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="26"/>
     </row>
     <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="25">
-        <v>3</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="C14" s="28">
+        <v>3</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
       <c r="L14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="28">
         <v>8</v>
       </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="26"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="29"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
@@ -1170,26 +1178,26 @@
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="40"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="30" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
+      <c r="J15" s="33"/>
       <c r="L15" s="9"/>
       <c r="M15" s="30" t="s">
         <v>0</v>
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
-      <c r="P15" s="40"/>
+      <c r="P15" s="32"/>
       <c r="Q15" s="30" t="s">
         <v>0</v>
       </c>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
-      <c r="T15" s="32"/>
+      <c r="T15" s="33"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
@@ -1299,62 +1307,62 @@
       <c r="B18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="25">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
       <c r="L18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="25">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33">
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="26"/>
     </row>
     <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="25">
-        <v>4</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
+      <c r="C20" s="28">
+        <v>4</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
       <c r="L20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="28">
         <v>9</v>
       </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="26"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="29"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
@@ -1363,26 +1371,26 @@
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
-      <c r="F21" s="40"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="30" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
+      <c r="J21" s="33"/>
       <c r="L21" s="9"/>
       <c r="M21" s="30" t="s">
         <v>0</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
-      <c r="P21" s="40"/>
+      <c r="P21" s="32"/>
       <c r="Q21" s="30" t="s">
         <v>0</v>
       </c>
       <c r="R21" s="31"/>
       <c r="S21" s="31"/>
-      <c r="T21" s="32"/>
+      <c r="T21" s="33"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
@@ -1492,62 +1500,62 @@
       <c r="B24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="25">
         <v>1.18E-2</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="44">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="34">
         <v>1.18E-2</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
       <c r="L24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="25">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33">
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="34"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="26"/>
     </row>
     <row r="25" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="25">
-        <v>5</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
+      <c r="C26" s="28">
+        <v>5</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
       <c r="L26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="28">
         <v>10</v>
       </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="26"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="29"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
@@ -1556,26 +1564,26 @@
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
-      <c r="F27" s="40"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="30" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="32"/>
+      <c r="J27" s="33"/>
       <c r="L27" s="9"/>
       <c r="M27" s="30" t="s">
         <v>0</v>
       </c>
       <c r="N27" s="31"/>
       <c r="O27" s="31"/>
-      <c r="P27" s="40"/>
+      <c r="P27" s="32"/>
       <c r="Q27" s="30" t="s">
         <v>0</v>
       </c>
       <c r="R27" s="31"/>
       <c r="S27" s="31"/>
-      <c r="T27" s="32"/>
+      <c r="T27" s="33"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
@@ -1685,169 +1693,190 @@
       <c r="B30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="25">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
       <c r="L30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="25">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33">
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="26"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="B34:S39"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="M26:T26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="M20:T20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="M21:P21"/>
@@ -1856,38 +1885,17 @@
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="M24:P24"/>
     <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="M26:T26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="B34:S39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1898,7 +1906,7 @@
   <dimension ref="B1:T39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:S39"/>
+      <selection activeCell="U40" sqref="A1:U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1924,29 +1932,29 @@
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
       <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="25">
-        <v>6</v>
-      </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="26"/>
+      <c r="M2" s="28">
+        <v>6</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
@@ -1955,26 +1963,26 @@
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
-      <c r="F3" s="40"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+      <c r="J3" s="33"/>
       <c r="L3" s="9"/>
       <c r="M3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
-      <c r="P3" s="40"/>
+      <c r="P3" s="32"/>
       <c r="Q3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="R3" s="31"/>
       <c r="S3" s="31"/>
-      <c r="T3" s="32"/>
+      <c r="T3" s="33"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
@@ -2084,33 +2092,33 @@
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="40">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37">
-        <v>0</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40">
+        <v>0</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="41"/>
       <c r="L6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="25">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33">
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="34"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="26"/>
     </row>
     <row r="7" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
@@ -2126,57 +2134,57 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="35">
-        <v>2</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
+      <c r="C8" s="42">
+        <v>2</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
       <c r="L8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="28">
         <v>7</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="26"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
-      <c r="C9" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="42"/>
+      <c r="C9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="39"/>
       <c r="L9" s="9"/>
       <c r="M9" s="30" t="s">
         <v>0</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31"/>
-      <c r="P9" s="40"/>
+      <c r="P9" s="32"/>
       <c r="Q9" s="30" t="s">
         <v>0</v>
       </c>
       <c r="R9" s="31"/>
       <c r="S9" s="31"/>
-      <c r="T9" s="32"/>
+      <c r="T9" s="33"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
@@ -2286,33 +2294,33 @@
       <c r="B12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="37">
-        <v>0</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37">
+      <c r="C12" s="40">
+        <v>0</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="41"/>
       <c r="L12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="33">
-        <v>0</v>
-      </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33">
+      <c r="M12" s="25">
+        <v>0</v>
+      </c>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="26"/>
     </row>
     <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
@@ -2328,57 +2336,57 @@
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="35">
-        <v>3</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
+      <c r="C14" s="42">
+        <v>3</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
       <c r="L14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="28">
         <v>8</v>
       </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="26"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="29"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
-      <c r="C15" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="42"/>
+      <c r="C15" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="39"/>
       <c r="L15" s="9"/>
       <c r="M15" s="30" t="s">
         <v>0</v>
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
-      <c r="P15" s="40"/>
+      <c r="P15" s="32"/>
       <c r="Q15" s="30" t="s">
         <v>0</v>
       </c>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
-      <c r="T15" s="32"/>
+      <c r="T15" s="33"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
@@ -2488,33 +2496,33 @@
       <c r="B18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="40">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37">
-        <v>0</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40">
+        <v>0</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="41"/>
       <c r="L18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="25">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33">
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="26"/>
     </row>
     <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="18"/>
@@ -2530,57 +2538,57 @@
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="35">
-        <v>4</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
+      <c r="C20" s="42">
+        <v>4</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
       <c r="L20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="28">
         <v>9</v>
       </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="26"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="29"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
-      <c r="C21" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="42"/>
+      <c r="C21" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="39"/>
       <c r="L21" s="9"/>
       <c r="M21" s="30" t="s">
         <v>0</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
-      <c r="P21" s="40"/>
+      <c r="P21" s="32"/>
       <c r="Q21" s="30" t="s">
         <v>0</v>
       </c>
       <c r="R21" s="31"/>
       <c r="S21" s="31"/>
-      <c r="T21" s="32"/>
+      <c r="T21" s="33"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
@@ -2690,33 +2698,33 @@
       <c r="B24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="37">
-        <v>0</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38">
-        <v>0</v>
-      </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
+      <c r="C24" s="40">
+        <v>0</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="44">
+        <v>0</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
       <c r="L24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="25">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33">
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="34"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="26"/>
     </row>
     <row r="25" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="18"/>
@@ -2732,57 +2740,57 @@
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="35">
-        <v>5</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
+      <c r="C26" s="42">
+        <v>5</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
       <c r="L26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="28">
         <v>10</v>
       </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="26"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="29"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
-      <c r="C27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="42"/>
+      <c r="C27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="39"/>
       <c r="L27" s="9"/>
       <c r="M27" s="30" t="s">
         <v>0</v>
       </c>
       <c r="N27" s="31"/>
       <c r="O27" s="31"/>
-      <c r="P27" s="40"/>
+      <c r="P27" s="32"/>
       <c r="Q27" s="30" t="s">
         <v>0</v>
       </c>
       <c r="R27" s="31"/>
       <c r="S27" s="31"/>
-      <c r="T27" s="32"/>
+      <c r="T27" s="33"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
@@ -2892,187 +2900,164 @@
       <c r="B30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="37">
-        <v>0</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37">
+      <c r="C30" s="40">
+        <v>0</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40">
         <v>1.11E-2</v>
       </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
       <c r="J30" s="41"/>
       <c r="L30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="25">
         <v>2.35E-2</v>
       </c>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33">
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="26"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="B34:S39"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="M26:T26"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C14:J14"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="G24:J24"/>
@@ -3089,12 +3074,35 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="M26:T26"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="B34:S39"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3116,29 +3124,29 @@
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25">
-        <v>1</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
       <c r="M3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="25">
-        <v>6</v>
-      </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="26"/>
+      <c r="N3" s="28">
+        <v>6</v>
+      </c>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="29"/>
     </row>
     <row r="4" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C4" s="9"/>
@@ -3147,26 +3155,26 @@
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="40"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
+      <c r="K4" s="33"/>
       <c r="M4" s="9"/>
       <c r="N4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="O4" s="31"/>
       <c r="P4" s="31"/>
-      <c r="Q4" s="40"/>
+      <c r="Q4" s="32"/>
       <c r="R4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
-      <c r="U4" s="32"/>
+      <c r="U4" s="33"/>
     </row>
     <row r="5" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C5" s="9"/>
@@ -3276,62 +3284,62 @@
       <c r="C7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="25">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33">
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
       <c r="M7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="25">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33">
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="34"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="26"/>
     </row>
     <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="25">
-        <v>2</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
+      <c r="D9" s="28">
+        <v>2</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
       <c r="M9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="28">
         <v>7</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="26"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="29"/>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C10" s="9"/>
@@ -3340,26 +3348,26 @@
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="40"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="30" t="s">
         <v>0</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="33"/>
       <c r="M10" s="9"/>
       <c r="N10" s="30" t="s">
         <v>0</v>
       </c>
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
-      <c r="Q10" s="40"/>
+      <c r="Q10" s="32"/>
       <c r="R10" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S10" s="31"/>
       <c r="T10" s="31"/>
-      <c r="U10" s="32"/>
+      <c r="U10" s="33"/>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C11" s="9"/>
@@ -3469,62 +3477,62 @@
       <c r="C13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="25">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
       <c r="M13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="25">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33">
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="34"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="26"/>
     </row>
     <row r="14" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="25">
-        <v>3</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
+      <c r="D15" s="28">
+        <v>3</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
       <c r="M15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="28">
         <v>8</v>
       </c>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="26"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="29"/>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C16" s="9"/>
@@ -3533,26 +3541,26 @@
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
-      <c r="G16" s="40"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="30" t="s">
         <v>0</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="33"/>
       <c r="M16" s="9"/>
       <c r="N16" s="30" t="s">
         <v>0</v>
       </c>
       <c r="O16" s="31"/>
       <c r="P16" s="31"/>
-      <c r="Q16" s="40"/>
+      <c r="Q16" s="32"/>
       <c r="R16" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S16" s="31"/>
       <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
+      <c r="U16" s="33"/>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C17" s="9"/>
@@ -3662,62 +3670,62 @@
       <c r="C19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="25">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
       <c r="M19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="25">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33">
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="34"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="26"/>
     </row>
     <row r="20" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="25">
-        <v>4</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
+      <c r="D21" s="28">
+        <v>4</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
       <c r="M21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="28">
         <v>9</v>
       </c>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="26"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="29"/>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C22" s="9"/>
@@ -3726,26 +3734,26 @@
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="30" t="s">
         <v>0</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
+      <c r="K22" s="33"/>
       <c r="M22" s="9"/>
       <c r="N22" s="30" t="s">
         <v>0</v>
       </c>
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
-      <c r="Q22" s="40"/>
+      <c r="Q22" s="32"/>
       <c r="R22" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S22" s="31"/>
       <c r="T22" s="31"/>
-      <c r="U22" s="32"/>
+      <c r="U22" s="33"/>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C23" s="9"/>
@@ -3855,62 +3863,62 @@
       <c r="C25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="25">
         <v>1.18E-2</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="44">
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="34">
         <v>1.18E-2</v>
       </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
       <c r="M25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="25">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33">
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="34"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="26"/>
     </row>
     <row r="26" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="25">
-        <v>5</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="26"/>
+      <c r="D27" s="28">
+        <v>5</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
       <c r="M27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="28">
         <v>10</v>
       </c>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="26"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="29"/>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
@@ -3919,26 +3927,26 @@
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
-      <c r="G28" s="40"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="30" t="s">
         <v>0</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
-      <c r="K28" s="32"/>
+      <c r="K28" s="33"/>
       <c r="M28" s="9"/>
       <c r="N28" s="30" t="s">
         <v>0</v>
       </c>
       <c r="O28" s="31"/>
       <c r="P28" s="31"/>
-      <c r="Q28" s="40"/>
+      <c r="Q28" s="32"/>
       <c r="R28" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S28" s="31"/>
       <c r="T28" s="31"/>
-      <c r="U28" s="32"/>
+      <c r="U28" s="33"/>
     </row>
     <row r="29" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C29" s="9"/>
@@ -4048,169 +4056,190 @@
       <c r="C31" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="25">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33">
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
       <c r="M31" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N31" s="33">
+      <c r="N31" s="25">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33">
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="34"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="26"/>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="C34:T39"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="N27:U27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="N9:U9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="N15:U15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="N21:U21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="N22:Q22"/>
@@ -4219,38 +4248,17 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="N21:U21"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="N15:U15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="N9:U9"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="N27:U27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="C34:T39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4260,8 +4268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6D0285-309A-4774-839E-DF08B490B1A8}">
   <dimension ref="D2:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4271,29 +4279,29 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="25">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="E3" s="28">
+        <v>1</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
       <c r="N3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="25">
-        <v>6</v>
-      </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="26"/>
+      <c r="O3" s="28">
+        <v>6</v>
+      </c>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="29"/>
     </row>
     <row r="4" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D4" s="9"/>
@@ -4302,26 +4310,26 @@
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
-      <c r="H4" s="40"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="L4" s="33"/>
       <c r="N4" s="9"/>
       <c r="O4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="31"/>
       <c r="Q4" s="31"/>
-      <c r="R4" s="40"/>
+      <c r="R4" s="32"/>
       <c r="S4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="32"/>
+      <c r="V4" s="33"/>
     </row>
     <row r="5" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D5" s="9"/>
@@ -4431,62 +4439,62 @@
       <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="33">
-        <v>0</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33">
+      <c r="E7" s="25">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
       <c r="N7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="33">
-        <v>0</v>
-      </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33">
+      <c r="O7" s="25">
+        <v>0</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="34"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="26"/>
     </row>
     <row r="8" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="25">
-        <v>2</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="E9" s="28">
+        <v>2</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
       <c r="N9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="28">
         <v>7</v>
       </c>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="26"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="29"/>
     </row>
     <row r="10" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D10" s="9"/>
@@ -4495,26 +4503,26 @@
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="40"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="30" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
+      <c r="L10" s="33"/>
       <c r="N10" s="9"/>
       <c r="O10" s="30" t="s">
         <v>0</v>
       </c>
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
-      <c r="R10" s="40"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="30" t="s">
         <v>0</v>
       </c>
       <c r="T10" s="31"/>
       <c r="U10" s="31"/>
-      <c r="V10" s="32"/>
+      <c r="V10" s="33"/>
     </row>
     <row r="11" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D11" s="9"/>
@@ -4624,62 +4632,62 @@
       <c r="D13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="25">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="N13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="25">
         <v>2.12E-2</v>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33">
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="34"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="26"/>
     </row>
     <row r="14" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="25">
-        <v>3</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="E15" s="28">
+        <v>3</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
       <c r="N15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="28">
         <v>8</v>
       </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="26"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="29"/>
     </row>
     <row r="16" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D16" s="9"/>
@@ -4688,26 +4696,26 @@
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
-      <c r="H16" s="40"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="30" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
+      <c r="L16" s="33"/>
       <c r="N16" s="9"/>
       <c r="O16" s="30" t="s">
         <v>0</v>
       </c>
       <c r="P16" s="31"/>
       <c r="Q16" s="31"/>
-      <c r="R16" s="40"/>
+      <c r="R16" s="32"/>
       <c r="S16" s="30" t="s">
         <v>0</v>
       </c>
       <c r="T16" s="31"/>
       <c r="U16" s="31"/>
-      <c r="V16" s="32"/>
+      <c r="V16" s="33"/>
     </row>
     <row r="17" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D17" s="9"/>
@@ -4817,62 +4825,62 @@
       <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="33">
-        <v>0</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33">
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25">
         <v>1.15E-2</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
       <c r="N19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="25">
         <v>2.18E-2</v>
       </c>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33">
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25">
         <v>2.29E-2</v>
       </c>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="34"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="26"/>
     </row>
     <row r="20" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="25">
-        <v>4</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
+      <c r="E21" s="28">
+        <v>4</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
       <c r="N21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="28">
         <v>9</v>
       </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="26"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="29"/>
     </row>
     <row r="22" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D22" s="9"/>
@@ -4881,26 +4889,26 @@
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="40"/>
+      <c r="H22" s="32"/>
       <c r="I22" s="30" t="s">
         <v>0</v>
       </c>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
-      <c r="L22" s="32"/>
+      <c r="L22" s="33"/>
       <c r="N22" s="9"/>
       <c r="O22" s="30" t="s">
         <v>0</v>
       </c>
       <c r="P22" s="31"/>
       <c r="Q22" s="31"/>
-      <c r="R22" s="40"/>
+      <c r="R22" s="32"/>
       <c r="S22" s="30" t="s">
         <v>0</v>
       </c>
       <c r="T22" s="31"/>
       <c r="U22" s="31"/>
-      <c r="V22" s="32"/>
+      <c r="V22" s="33"/>
     </row>
     <row r="23" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D23" s="9"/>
@@ -5010,62 +5018,62 @@
       <c r="D25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="33">
-        <v>0</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="44">
-        <v>0</v>
-      </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="45"/>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="34">
+        <v>0</v>
+      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="35"/>
       <c r="N25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="25">
         <v>2.4E-2</v>
       </c>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33">
-        <v>0</v>
-      </c>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="34"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25">
+        <v>0</v>
+      </c>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="26"/>
     </row>
     <row r="26" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="25">
-        <v>5</v>
-      </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
+      <c r="E27" s="28">
+        <v>5</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
       <c r="N27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="28">
         <v>10</v>
       </c>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="26"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="29"/>
     </row>
     <row r="28" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D28" s="9"/>
@@ -5074,26 +5082,26 @@
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="40"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="30" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="31"/>
-      <c r="L28" s="32"/>
+      <c r="L28" s="33"/>
       <c r="N28" s="9"/>
       <c r="O28" s="30" t="s">
         <v>0</v>
       </c>
       <c r="P28" s="31"/>
       <c r="Q28" s="31"/>
-      <c r="R28" s="40"/>
+      <c r="R28" s="32"/>
       <c r="S28" s="30" t="s">
         <v>0</v>
       </c>
       <c r="T28" s="31"/>
       <c r="U28" s="31"/>
-      <c r="V28" s="32"/>
+      <c r="V28" s="33"/>
     </row>
     <row r="29" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D29" s="9"/>
@@ -5203,170 +5211,189 @@
       <c r="D31" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="25">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33">
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
       <c r="N31" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O31" s="33">
+      <c r="O31" s="25">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33">
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25">
         <v>2.35E-2</v>
       </c>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="34"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="26"/>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="O9:V9"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="D34:U39"/>
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="O27:V27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="O21:V21"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="O15:V15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:V16"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="O10:R10"/>
@@ -5375,37 +5402,2363 @@
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="O13:R13"/>
     <mergeCell ref="S13:V13"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="O15:V15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="O21:V21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="O27:V27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="O9:V9"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED57695-ECF3-42C3-8130-6D4C81822888}">
+  <dimension ref="D1:V39"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
+      <c r="N2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="28">
+        <v>6</v>
+      </c>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+    </row>
+    <row r="3" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D3" s="9"/>
+      <c r="E3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="33"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="33"/>
+    </row>
+    <row r="4" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D4" s="9"/>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D5" s="9"/>
+      <c r="E5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="16">
+        <v>5</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="16">
+        <v>5</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>5</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U5" s="7">
+        <v>5</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="40">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41"/>
+      <c r="N6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="25">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25">
+        <v>0</v>
+      </c>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="26"/>
+    </row>
+    <row r="7" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="42">
+        <v>2</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="N8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="28">
+        <v>7</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="29"/>
+    </row>
+    <row r="9" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="9"/>
+      <c r="E9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="39"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="33"/>
+    </row>
+    <row r="10" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="9"/>
+      <c r="E10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="9"/>
+      <c r="E11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="16">
+        <v>5</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="K11" s="16">
+        <v>5</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>5</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U11" s="7">
+        <v>5</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="40">
+        <v>0</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40">
+        <v>0</v>
+      </c>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="N12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="25">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25">
+        <v>0</v>
+      </c>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="26"/>
+    </row>
+    <row r="13" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="42">
+        <v>3</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="N14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="28">
+        <v>8</v>
+      </c>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="29"/>
+    </row>
+    <row r="15" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="9"/>
+      <c r="E15" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="39"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="33"/>
+    </row>
+    <row r="16" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D16" s="9"/>
+      <c r="E16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D17" s="9"/>
+      <c r="E17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="16">
+        <v>5</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="K17" s="16">
+        <v>5</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>5</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U17" s="7">
+        <v>5</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="40">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40">
+        <v>0</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
+      <c r="N18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="25">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25">
+        <v>2.29E-2</v>
+      </c>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
+    </row>
+    <row r="19" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="42">
+        <v>4</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
+      <c r="N20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="28">
+        <v>9</v>
+      </c>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="29"/>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D21" s="9"/>
+      <c r="E21" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="39"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="33"/>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D22" s="9"/>
+      <c r="E22" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D23" s="9"/>
+      <c r="E23" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="16">
+        <v>5</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="K23" s="16">
+        <v>5</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>5</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U23" s="7">
+        <v>5</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="40">
+        <v>0</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="44">
+        <v>0</v>
+      </c>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
+      <c r="N24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="25">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="26"/>
+    </row>
+    <row r="25" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="42">
+        <v>5</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
+      <c r="N26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="28">
+        <v>10</v>
+      </c>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="29"/>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D27" s="9"/>
+      <c r="E27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="39"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="33"/>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D28" s="9"/>
+      <c r="E28" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="9"/>
+      <c r="O28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D29" s="9"/>
+      <c r="E29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="16">
+        <v>5</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="K29" s="16">
+        <v>5</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="9"/>
+      <c r="O29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>5</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U29" s="7">
+        <v>5</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="40">
+        <v>1.17E-2</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
+      <c r="N30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="25">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="26"/>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D34" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+    </row>
+    <row r="35" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+    </row>
+    <row r="36" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+    </row>
+    <row r="37" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+    </row>
+    <row r="38" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+    </row>
+    <row r="39" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:V30"/>
     <mergeCell ref="D34:U39"/>
+    <mergeCell ref="E26:L26"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="O20:V20"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="O14:V14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="O8:V8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AFCCAB-A135-41C1-B4EF-A53262DD10B2}">
+  <dimension ref="D1:V37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="28">
+        <v>1</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="N1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="28">
+        <v>6</v>
+      </c>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="29"/>
+    </row>
+    <row r="2" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D2" s="9"/>
+      <c r="E2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="33"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="33"/>
+    </row>
+    <row r="3" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D3" s="9"/>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D4" s="9"/>
+      <c r="E4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K4" s="7">
+        <v>5</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>5</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U4" s="7">
+        <v>5</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="25">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="N5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="25">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="26"/>
+    </row>
+    <row r="6" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="28">
+        <v>2</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="N7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="28">
+        <v>7</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="29"/>
+    </row>
+    <row r="8" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D8" s="9"/>
+      <c r="E8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="33"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="33"/>
+    </row>
+    <row r="9" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="9"/>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="9"/>
+      <c r="E10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>5</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U10" s="7">
+        <v>5</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="25">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="N11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="25">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="26"/>
+    </row>
+    <row r="12" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="28">
+        <v>3</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="N13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="28">
+        <v>8</v>
+      </c>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="29"/>
+    </row>
+    <row r="14" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D14" s="9"/>
+      <c r="E14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="33"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="33"/>
+    </row>
+    <row r="15" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="9"/>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D16" s="9"/>
+      <c r="E16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="7">
+        <v>5</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>5</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U16" s="7">
+        <v>5</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="25">
+        <v>1.14E-2</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25">
+        <v>1.14E-2</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="N17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="25">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
+    </row>
+    <row r="18" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="28">
+        <v>4</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="N19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="28">
+        <v>9</v>
+      </c>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="29"/>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D20" s="9"/>
+      <c r="E20" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="33"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="33"/>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D21" s="9"/>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D22" s="9"/>
+      <c r="E22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="7">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K22" s="7">
+        <v>5</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>5</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U22" s="7">
+        <v>5</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="34">
+        <v>1.18E-2</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
+      <c r="N23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="25">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="26"/>
+    </row>
+    <row r="24" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="28">
+        <v>5</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
+      <c r="N25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="28">
+        <v>10</v>
+      </c>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="29"/>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D26" s="9"/>
+      <c r="E26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="33"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="33"/>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D27" s="9"/>
+      <c r="E27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="9"/>
+      <c r="O27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D28" s="9"/>
+      <c r="E28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="7">
+        <v>5</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K28" s="7">
+        <v>5</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="9"/>
+      <c r="O28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>5</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U28" s="7">
+        <v>5</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="N29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="25">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="26"/>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D32" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+    </row>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+    </row>
+    <row r="35" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+    </row>
+    <row r="36" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+    </row>
+    <row r="37" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="D32:U37"/>
+    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="O25:V25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="O19:V19"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="O13:V13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="O7:V7"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
